--- a/GptTeste.xlsx
+++ b/GptTeste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Repos\estatisticaTechData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E21EE1-D889-46EB-B2E6-E9DE0359C54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B40A74-01CC-4933-8ADB-936AC790C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73BE2DD5-C119-4522-9292-A17D173AA3DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73BE2DD5-C119-4522-9292-A17D173AA3DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Pesos</t>
   </si>
@@ -57,16 +57,82 @@
   </si>
   <si>
     <t>Amostra 6</t>
+  </si>
+  <si>
+    <t>Saco 1</t>
+  </si>
+  <si>
+    <t>Saco 2</t>
+  </si>
+  <si>
+    <t>Saco 3</t>
+  </si>
+  <si>
+    <t>Saco 4</t>
+  </si>
+  <si>
+    <t>Saco 5</t>
+  </si>
+  <si>
+    <t>Saco 6</t>
+  </si>
+  <si>
+    <t>Saco 7</t>
+  </si>
+  <si>
+    <t>Saco 8</t>
+  </si>
+  <si>
+    <t>Saco 9</t>
+  </si>
+  <si>
+    <t>Saco 10</t>
+  </si>
+  <si>
+    <t>Saco 11</t>
+  </si>
+  <si>
+    <t>Saco 12</t>
+  </si>
+  <si>
+    <t>Saco 13</t>
+  </si>
+  <si>
+    <t>Saco 14</t>
+  </si>
+  <si>
+    <t>Saco 15</t>
+  </si>
+  <si>
+    <t>Saco 16</t>
+  </si>
+  <si>
+    <t>Saco 17</t>
+  </si>
+  <si>
+    <t>Saco 18</t>
+  </si>
+  <si>
+    <t>Saco 19</t>
+  </si>
+  <si>
+    <t>Saco 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +483,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H1" sqref="H1:Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,8 +515,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44927</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>9.82</v>
@@ -472,8 +538,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44928</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>9.9600000000000009</v>
@@ -495,8 +561,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44929</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>10.050000000000001</v>
@@ -518,8 +584,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44930</v>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>9.9</v>
@@ -541,8 +607,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44931</v>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>10.119999999999999</v>
@@ -564,8 +630,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44932</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>9.8800000000000008</v>
@@ -587,8 +653,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44933</v>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>9.9600000000000009</v>
@@ -610,8 +676,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44934</v>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>10.029999999999999</v>
@@ -633,8 +699,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44935</v>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>10.1</v>
@@ -656,8 +722,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44936</v>
+      <c r="A11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>9.94</v>
@@ -679,8 +745,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44937</v>
+      <c r="A12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>10.06</v>
@@ -702,8 +768,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44938</v>
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>9.98</v>
@@ -725,8 +791,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44939</v>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>10.02</v>
@@ -748,8 +814,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44940</v>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>10.08</v>
@@ -771,8 +837,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44941</v>
+      <c r="A16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>9.99</v>
@@ -794,8 +860,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>44942</v>
+      <c r="A17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>10.01</v>
@@ -817,8 +883,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>44943</v>
+      <c r="A18" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>9.9499999999999993</v>
@@ -840,8 +906,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>44944</v>
+      <c r="A19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>10.11</v>
@@ -863,8 +929,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44945</v>
+      <c r="A20" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>10.07</v>
@@ -886,8 +952,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44946</v>
+      <c r="A21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>9.93</v>
@@ -909,28 +975,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="93212faf-d01f-4cc6-b801-5104737c245f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074A3B1FFF6BE994BA0927E3D47CA9FB5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="64f8635be9985e7c26a629f7e3c61bf6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93212faf-d01f-4cc6-b801-5104737c245f" xmlns:ns4="aa11ab76-aa32-4359-afb9-9b5f6eb96f73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0297756bde5e6faed80b17a47f265cf1" ns3:_="" ns4:_="">
     <xsd:import namespace="93212faf-d01f-4cc6-b801-5104737c245f"/>
@@ -1165,32 +1215,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AB208B-94B3-428B-A257-2B733576C54D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="93212faf-d01f-4cc6-b801-5104737c245f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="aa11ab76-aa32-4359-afb9-9b5f6eb96f73"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F250029-731C-4733-ADAE-2096A3D2D855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="93212faf-d01f-4cc6-b801-5104737c245f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57136E89-98A0-4A57-B3CD-EF7B92925F8D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1207,4 +1249,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F250029-731C-4733-ADAE-2096A3D2D855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AB208B-94B3-428B-A257-2B733576C54D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="93212faf-d01f-4cc6-b801-5104737c245f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="aa11ab76-aa32-4359-afb9-9b5f6eb96f73"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>